--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -1367,17 +1367,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1386,26 +1386,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.08984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -2689,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Helsepersonell som har rekvirert legemidlet, basert på no-basis-Practitioner. HPR-nummer skal oppgis når tilgjengelig. Profilen tillater manglende HPR for rekvirenter uten HPR-registrering (f.eks. forskning eller systemer uten HPR-kontrakt).</t>
+    <t>Helsepersonell som har rekvirert legemidlet, basert på no-basis-Practitioner. HPR-nummer skal oppgis når tilgjengelig.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -462,10 +462,10 @@
 </t>
   </si>
   <si>
-    <t>HPR-nummer når tilgjengelig</t>
-  </si>
-  <si>
-    <t>HPR-nummer fra Helsepersonellregisteret når tilgjengelig. Kan mangle for rekvirenter uten HPR-registrering.</t>
+    <t>Helsepersonellnummer (HPR-nummer)</t>
+  </si>
+  <si>
+    <t>Helsepersonellnummer (HPR-nummer) fra Helsepersonellregisteret. Skal registreres når tilgjengelig.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -487,7 +487,7 @@
     <t>HPR-nummer</t>
   </si>
   <si>
-    <t>Helsepersonellnummer fra HPR når tilgjengelig.</t>
+    <t>Helsepersonellnummer fra Helsepersonellregisteret.</t>
   </si>
   <si>
     <t>Practitioner.identifier:HPR.id</t>
@@ -2773,7 +2773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>147</v>
       </c>
@@ -10075,12 +10075,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ82">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
